--- a/Excel/Time Series Forecasting - Additive 10Nov2019.xlsx
+++ b/Excel/Time Series Forecasting - Additive 10Nov2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\__Courses\7 Time Series\Time-Series-Forecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/063bf5775d666102/_YouTube Working Files/Git Time Series/YT_Time_Series_Forecasting/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D1EB02-5DF1-404A-90EA-8C0F3DEFED70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F5D1EB02-5DF1-404A-90EA-8C0F3DEFED70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1158AC9B-CAC7-4343-B1CD-0BED2216BDB9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{222811F3-B945-4F38-BB77-4DEABE907094}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{222811F3-B945-4F38-BB77-4DEABE907094}"/>
   </bookViews>
   <sheets>
     <sheet name="Step0" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Step5" sheetId="12" r:id="rId6"/>
     <sheet name="Step6" sheetId="13" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -6634,16 +6638,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>108040</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104976</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>360589</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>64155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>370113</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>74839</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>315684</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7099,37 +7103,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8633F3-9582-4A2B-B02D-C905D9B0170C}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
     </row>
-    <row r="3" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -7137,7 +7141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -7145,7 +7149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -7153,7 +7157,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -7161,7 +7165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>71</v>
       </c>
@@ -7169,7 +7173,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7177,7 +7181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -7185,7 +7189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>74</v>
       </c>
@@ -7207,12 +7211,12 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -7229,7 +7233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7246,7 +7250,7 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -7263,7 +7267,7 @@
         <v>61000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -7280,7 +7284,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -7297,7 +7301,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -7314,7 +7318,7 @@
         <v>78000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7331,7 +7335,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -7348,7 +7352,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -7365,7 +7369,7 @@
         <v>94000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -7382,7 +7386,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -7399,7 +7403,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -7416,7 +7420,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -7433,7 +7437,7 @@
         <v>98000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -7450,7 +7454,7 @@
         <v>83000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -7467,7 +7471,7 @@
         <v>79000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -7484,7 +7488,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -7511,18 +7515,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DA9F5E-4978-4CC8-9AB3-607969F7620D}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:J6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K1" t="s">
         <v>31</v>
       </c>
@@ -7540,7 +7544,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>66</v>
       </c>
@@ -7560,7 +7564,7 @@
         <v>-4395.8333333333339</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N3">
         <v>2</v>
       </c>
@@ -7573,7 +7577,7 @@
         <v>-10687.5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N4">
         <v>3</v>
       </c>
@@ -7586,7 +7590,7 @@
         <v>5895.8333333333339</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N5">
         <v>4</v>
       </c>
@@ -7599,7 +7603,7 @@
         <v>9187.5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>9</v>
       </c>
@@ -7614,7 +7618,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -7650,7 +7654,7 @@
       </c>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7675,7 +7679,7 @@
         <v>72395.833333333328</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -7700,7 +7704,7 @@
         <v>71687.5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -7737,7 +7741,7 @@
         <v>74104.166666666672</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -7774,7 +7778,7 @@
         <v>75812.5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -7811,7 +7815,7 @@
         <v>82395.833333333328</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -7848,7 +7852,7 @@
         <v>82687.5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -7885,7 +7889,7 @@
         <v>82104.166666666672</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -7922,7 +7926,7 @@
         <v>84812.5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9</v>
       </c>
@@ -7959,7 +7963,7 @@
         <v>84395.833333333328</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -7996,7 +8000,7 @@
         <v>86687.5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11</v>
       </c>
@@ -8033,7 +8037,7 @@
         <v>89104.166666666672</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -8070,7 +8074,7 @@
         <v>88812.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13</v>
       </c>
@@ -8107,7 +8111,7 @@
         <v>87395.833333333328</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14</v>
       </c>
@@ -8144,7 +8148,7 @@
         <v>89687.5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
@@ -8174,7 +8178,7 @@
         <v>94104.166666666672</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>16</v>
       </c>
@@ -8218,18 +8222,18 @@
       <selection activeCell="H7" sqref="H7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.44140625" customWidth="1"/>
-    <col min="14" max="14" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J1" t="s">
         <v>31</v>
       </c>
@@ -8254,7 +8258,7 @@
         <v>71391.666666666657</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J2" t="s">
         <v>66</v>
       </c>
@@ -8281,7 +8285,7 @@
         <v>1461.2745098039218</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M3">
         <v>2</v>
       </c>
@@ -8294,7 +8298,7 @@
         <v>-10687.5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M4">
         <v>3</v>
       </c>
@@ -8307,7 +8311,7 @@
         <v>5895.8333333333339</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M5">
         <v>4</v>
       </c>
@@ -8320,7 +8324,7 @@
         <v>9187.5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -8336,7 +8340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -8351,7 +8355,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -8386,7 +8390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -8415,7 +8419,7 @@
         <v>72852.941176470573</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -8444,7 +8448,7 @@
         <v>74314.215686274503</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -8485,7 +8489,7 @@
         <v>75775.490196078419</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -8526,7 +8530,7 @@
         <v>77236.76470588235</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -8567,7 +8571,7 @@
         <v>78698.039215686265</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -8608,7 +8612,7 @@
         <v>80159.313725490181</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -8649,7 +8653,7 @@
         <v>81620.588235294112</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -8690,7 +8694,7 @@
         <v>83081.862745098028</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -8731,7 +8735,7 @@
         <v>84543.137254901958</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -8772,7 +8776,7 @@
         <v>86004.411764705874</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
@@ -8813,7 +8817,7 @@
         <v>87465.68627450979</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -8854,7 +8858,7 @@
         <v>88926.96078431372</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
@@ -8895,7 +8899,7 @@
         <v>90388.235294117636</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14</v>
       </c>
@@ -8936,7 +8940,7 @@
         <v>91849.509803921566</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
@@ -8970,7 +8974,7 @@
         <v>93310.784313725482</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16</v>
       </c>
@@ -9018,21 +9022,21 @@
       <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="11"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
@@ -9040,7 +9044,7 @@
         <v>0.9625189588137405</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -9048,7 +9052,7 @@
         <v>0.92644274607588706</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
@@ -9056,7 +9060,7 @@
         <v>0.92118865650987902</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -9064,7 +9068,7 @@
         <v>2035.4099923617032</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
@@ -9072,12 +9076,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="s">
         <v>33</v>
@@ -9095,7 +9099,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
@@ -9115,7 +9119,7 @@
         <v>2.5232728874048511E-9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>30</v>
       </c>
@@ -9131,7 +9135,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
@@ -9145,8 +9149,8 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>38</v>
@@ -9173,7 +9177,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>32</v>
       </c>
@@ -9202,7 +9206,7 @@
         <v>73436.073883640813</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
@@ -9244,27 +9248,27 @@
       <selection activeCell="H7" sqref="H7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.5546875" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K1" t="s">
         <v>31</v>
       </c>
@@ -9289,7 +9293,7 @@
         <v>71391.666666666657</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K2" t="s">
         <v>66</v>
       </c>
@@ -9316,7 +9320,7 @@
         <v>1461.2745098039218</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N3">
         <v>2</v>
       </c>
@@ -9329,7 +9333,7 @@
         <v>-10687.5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N4">
         <v>3</v>
       </c>
@@ -9342,7 +9346,7 @@
         <v>5895.8333333333339</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N5">
         <v>4</v>
       </c>
@@ -9355,7 +9359,7 @@
         <v>9187.5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -9371,7 +9375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -9386,7 +9390,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -9431,7 +9435,7 @@
         <v>1.842785040369543E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -9468,7 +9472,7 @@
         <v>6.7221741637830054E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -9505,7 +9509,7 @@
         <v>4.3060912889745957E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -9554,7 +9558,7 @@
         <v>2.0891544117646845E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -9603,7 +9607,7 @@
         <v>1.675605536332176E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -9652,7 +9656,7 @@
         <v>4.7407616892911064E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -9701,7 +9705,7 @@
         <v>3.5113698257080814E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -9750,7 +9754,7 @@
         <v>5.4952094474154528E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -9799,7 +9803,7 @@
         <v>1.8411034626616727E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -9848,7 +9852,7 @@
         <v>1.8412990196078681E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -9897,7 +9901,7 @@
         <v>8.9880030959753453E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
@@ -9946,7 +9950,7 @@
         <v>1.7247162022704019E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -9995,7 +9999,7 @@
         <v>1.1679671868746945E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
@@ -10044,7 +10048,7 @@
         <v>3.6053035672100088E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14</v>
       </c>
@@ -10093,7 +10097,7 @@
         <v>2.7367212707867929E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
@@ -10135,7 +10139,7 @@
         <v>7.9338235294118924E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16</v>
       </c>
@@ -10173,7 +10177,7 @@
         <v>3.8885746606348012E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>17</v>
       </c>
@@ -10204,7 +10208,7 @@
         <v>91837.5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>18</v>
       </c>
@@ -10235,7 +10239,7 @@
         <v>87007.107843137244</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>19</v>
       </c>
@@ -10266,7 +10270,7 @@
         <v>105051.7156862745</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>20</v>
       </c>
@@ -10315,28 +10319,28 @@
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K1" t="s">
         <v>31</v>
       </c>
@@ -10361,7 +10365,7 @@
         <v>71391.666666666657</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K2" t="s">
         <v>66</v>
       </c>
@@ -10388,7 +10392,7 @@
         <v>1461.2745098039218</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N3">
         <v>2</v>
       </c>
@@ -10401,7 +10405,7 @@
         <v>-10687.5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N4">
         <v>3</v>
       </c>
@@ -10414,7 +10418,7 @@
         <v>5895.8333333333339</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N5">
         <v>4</v>
       </c>
@@ -10427,7 +10431,7 @@
         <v>9187.5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
@@ -10443,7 +10447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -10458,7 +10462,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -10509,7 +10513,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -10550,7 +10554,7 @@
         <v>6.7221741637830054E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -10591,7 +10595,7 @@
         <v>4.3060912889745957E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -10644,7 +10648,7 @@
         <v>2.0891544117646845E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -10697,7 +10701,7 @@
         <v>1.675605536332176E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -10750,7 +10754,7 @@
         <v>4.7407616892911064E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -10803,7 +10807,7 @@
         <v>3.5113698257080814E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -10856,7 +10860,7 @@
         <v>5.4952094474154528E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -10909,7 +10913,7 @@
         <v>1.8411034626616727E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -10962,7 +10966,7 @@
         <v>1.8412990196078681E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -11015,7 +11019,7 @@
         <v>8.9880030959753453E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
@@ -11068,7 +11072,7 @@
         <v>1.7247162022704019E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -11121,7 +11125,7 @@
         <v>1.1679671868746945E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13</v>
       </c>
@@ -11174,7 +11178,7 @@
         <v>3.6053035672100088E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14</v>
       </c>
@@ -11227,7 +11231,7 @@
         <v>2.7367212707867929E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
@@ -11273,7 +11277,7 @@
         <v>7.9338235294118924E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16</v>
       </c>
